--- a/results/2025-2-21/mspecies/meta-datas-pmi.xlsx
+++ b/results/2025-2-21/mspecies/meta-datas-pmi.xlsx
@@ -660,10 +660,10 @@
         <v>611</v>
       </c>
       <c r="C2" t="n">
-        <v>408</v>
+        <v>4906</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>4498</v>
       </c>
       <c r="E2" t="n">
         <v>408</v>
@@ -679,10 +679,10 @@
         <v>3328</v>
       </c>
       <c r="C3" t="n">
-        <v>1535</v>
+        <v>5497</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3962</v>
       </c>
       <c r="E3" t="n">
         <v>1535</v>
@@ -698,10 +698,10 @@
         <v>834</v>
       </c>
       <c r="C4" t="n">
-        <v>131</v>
+        <v>786</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="E4" t="n">
         <v>131</v>
@@ -717,10 +717,10 @@
         <v>118</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>1392</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1292</v>
       </c>
       <c r="E5" t="n">
         <v>100</v>
@@ -736,10 +736,10 @@
         <v>726</v>
       </c>
       <c r="C6" t="n">
-        <v>562</v>
+        <v>2060</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1498</v>
       </c>
       <c r="E6" t="n">
         <v>562</v>
@@ -755,10 +755,10 @@
         <v>809</v>
       </c>
       <c r="C7" t="n">
-        <v>637</v>
+        <v>2288</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1651</v>
       </c>
       <c r="E7" t="n">
         <v>637</v>
@@ -774,10 +774,10 @@
         <v>834</v>
       </c>
       <c r="C8" t="n">
-        <v>678</v>
+        <v>2442</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1764</v>
       </c>
       <c r="E8" t="n">
         <v>678</v>
@@ -793,10 +793,10 @@
         <v>876</v>
       </c>
       <c r="C9" t="n">
-        <v>689</v>
+        <v>2396</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1707</v>
       </c>
       <c r="E9" t="n">
         <v>689</v>
@@ -853,10 +853,10 @@
         <v>108</v>
       </c>
       <c r="C2" t="n">
-        <v>80</v>
+        <v>1014</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>934</v>
       </c>
       <c r="E2" t="n">
         <v>80</v>
@@ -872,10 +872,10 @@
         <v>394</v>
       </c>
       <c r="C3" t="n">
-        <v>114</v>
+        <v>423</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="E3" t="n">
         <v>114</v>
@@ -891,10 +891,10 @@
         <v>33</v>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>214</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -910,10 +910,10 @@
         <v>33</v>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>491</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="E5" t="n">
         <v>32</v>
@@ -929,10 +929,10 @@
         <v>324</v>
       </c>
       <c r="C6" t="n">
-        <v>269</v>
+        <v>1009</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>740</v>
       </c>
       <c r="E6" t="n">
         <v>269</v>
@@ -948,10 +948,10 @@
         <v>309</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>880</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>640</v>
       </c>
       <c r="E7" t="n">
         <v>240</v>
@@ -967,10 +967,10 @@
         <v>299</v>
       </c>
       <c r="C8" t="n">
-        <v>235</v>
+        <v>863</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>628</v>
       </c>
       <c r="E8" t="n">
         <v>235</v>
@@ -986,10 +986,10 @@
         <v>462</v>
       </c>
       <c r="C9" t="n">
-        <v>350</v>
+        <v>1284</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>934</v>
       </c>
       <c r="E9" t="n">
         <v>350</v>
